--- a/data/trans_dic/P3A$otraSIcobraNOhogar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobraNOhogar-Provincia-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.01951403379080047</v>
+        <v>0.01951403379080048</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.03343078555137083</v>
+        <v>0.03343078555137084</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02644189088398708</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009443401115786983</v>
+        <v>0.009420247064867436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02002537173897023</v>
+        <v>0.02075809679540349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01718002599383096</v>
+        <v>0.01810168169921152</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03746918904991457</v>
+        <v>0.03741573018213636</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05161565215802515</v>
+        <v>0.05136352492666533</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03711889701302258</v>
+        <v>0.0380144766143588</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003447345420728247</v>
+        <v>0.003453871650593753</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01171334791063558</v>
+        <v>0.01089764355334005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008973999708042763</v>
+        <v>0.008734639316520056</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02044046830749757</v>
+        <v>0.02247865449680464</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03080454064987692</v>
+        <v>0.02946281622713745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0215359078346355</v>
+        <v>0.02165135375737766</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.02304532490773892</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04045856574093852</v>
+        <v>0.04045856574093853</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03226812738214414</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01270569116330614</v>
+        <v>0.01257672845476084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02679664937195181</v>
+        <v>0.02679150437825062</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0233125645397924</v>
+        <v>0.02288892920685793</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03828366337847393</v>
+        <v>0.0388808344647283</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05960323137521086</v>
+        <v>0.05888220175946295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04431516490875276</v>
+        <v>0.04425869179843728</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.03039487469585167</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02376898581682716</v>
+        <v>0.02376898581682717</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02687852949317542</v>
+        <v>0.02687852949317543</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01419897610280014</v>
+        <v>0.01494041562821023</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01527415814690308</v>
+        <v>0.01494975373263549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01768856845244132</v>
+        <v>0.01823134873169567</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.072198055544719</v>
+        <v>0.06718161482898284</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03538617765324054</v>
+        <v>0.03509777934110034</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04475617784869317</v>
+        <v>0.04444003414293358</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006331843573976777</v>
+        <v>0.00554451280432986</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01757396284325705</v>
+        <v>0.01798440551806072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01479258147365587</v>
+        <v>0.01562762243131013</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03454431674715402</v>
+        <v>0.0358588463436968</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04836416119618057</v>
+        <v>0.04956627719905705</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03577459434196032</v>
+        <v>0.03523712496660335</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.03148296092290747</v>
+        <v>0.03148296092290746</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.04608236042625625</v>
+        <v>0.04608236042625624</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.03868764516687536</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01924843875843892</v>
+        <v>0.01862324684661734</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03337751815567302</v>
+        <v>0.0331890711062779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02873327979660628</v>
+        <v>0.02882377018712461</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05205145906465704</v>
+        <v>0.0507091755738826</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06606651284485669</v>
+        <v>0.0669577076341818</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05030737415899608</v>
+        <v>0.05118401943506966</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.01677095945400611</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.0191187729821387</v>
+        <v>0.01911877298213871</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01273897654895033</v>
+        <v>0.01302741482737182</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01033376108175478</v>
+        <v>0.01044969242847361</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01337937617948282</v>
+        <v>0.0129805939448258</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03403350183154846</v>
+        <v>0.03518797118709958</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02557307819550724</v>
+        <v>0.02626274314811515</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02623290983926768</v>
+        <v>0.02595136608849067</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.01377605946136855</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.009757725588135981</v>
+        <v>0.009757725588135983</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.002475791980806731</v>
+        <v>0.002492743882353395</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.007849973768484887</v>
+        <v>0.008007428531623634</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.006240105805332119</v>
+        <v>0.006056652478930658</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01226595855258216</v>
+        <v>0.01189476407109893</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02176104477513112</v>
+        <v>0.02194871903938382</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0146602969695178</v>
+        <v>0.0144444316507964</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.02369516945917878</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.02069073089525288</v>
+        <v>0.02069073089525289</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01378056500794678</v>
+        <v>0.01407916786205429</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02026599933833883</v>
+        <v>0.02040324928141576</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0180989167348881</v>
+        <v>0.01799742098249282</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02230196074124071</v>
+        <v>0.02295733407109047</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02774028896986102</v>
+        <v>0.02794532562455269</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0237695192801975</v>
+        <v>0.02356427663386767</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3011</v>
+        <v>3004</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6329</v>
+        <v>6561</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10908</v>
+        <v>11493</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11947</v>
+        <v>11930</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16314</v>
+        <v>16234</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23567</v>
+        <v>24136</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6401</v>
+        <v>5955</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9666</v>
+        <v>9408</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10847</v>
+        <v>11928</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16834</v>
+        <v>16101</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23197</v>
+        <v>23322</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4007</v>
+        <v>3966</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15632</v>
+        <v>15347</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12074</v>
+        <v>12262</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21167</v>
+        <v>20911</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29714</v>
+        <v>29676</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5298</v>
+        <v>5575</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6445</v>
+        <v>6308</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14064</v>
+        <v>14496</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26940</v>
+        <v>25068</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14932</v>
+        <v>14810</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35586</v>
+        <v>35335</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1299</v>
+        <v>1138</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4023</v>
+        <v>4117</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6421</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7088</v>
+        <v>7358</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11071</v>
+        <v>11347</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15530</v>
+        <v>15296</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5211</v>
+        <v>5041</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8803</v>
+        <v>8754</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15357</v>
+        <v>15405</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14091</v>
+        <v>13727</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17425</v>
+        <v>17660</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>26887</v>
+        <v>27356</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9168</v>
+        <v>9376</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7978</v>
+        <v>8068</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>19959</v>
+        <v>19364</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>24493</v>
+        <v>25324</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19744</v>
+        <v>20276</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>39133</v>
+        <v>38713</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1976</v>
+        <v>1989</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>6526</v>
+        <v>6657</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10168</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>9789</v>
+        <v>9493</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>18091</v>
+        <v>18247</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>23888</v>
+        <v>23536</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>48668</v>
+        <v>49723</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>75708</v>
+        <v>76221</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>131532</v>
+        <v>130794</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>78763</v>
+        <v>81078</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>103630</v>
+        <v>104396</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>172742</v>
+        <v>171251</v>
       </c>
     </row>
     <row r="40">
